--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\bin\Debug\net6.0\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -136,9 +136,6 @@
     <x:t>Оплачено</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Зарегистрирован</x:t>
   </x:si>
   <x:si>
@@ -154,9 +151,6 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
-    <x:t>01.04.2023</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
@@ -169,16 +163,10 @@
     <x:t>Templates\TestDocs\testDoc.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена категория договора "Сервисное обслуживание".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден контрагент "Digital River GmbH".</x:t>
+    <x:t>15.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-491</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -809,7 +797,7 @@
   <x:dimension ref="A1:W22"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I12" sqref="I12"/>
+      <x:selection activeCell="D11" sqref="D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -897,19 +885,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="T1" s="28" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="U1" s="28" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="U1" s="28" t="s">
+      <x:c r="V1" s="28" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="V1" s="28" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="W1"/>
     </x:row>
     <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -927,13 +915,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G2" s="36" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H2" s="36" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I2" s="37" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J2" s="11">
         <x:v>40410</x:v>
@@ -948,7 +936,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="N2" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O2" s="10"/>
       <x:c r="P2" s="10"/>
@@ -959,16 +947,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="S2" s="38" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>51</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="W2"/>
     </x:row>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -163,10 +163,10 @@
     <x:t>Templates\TestDocs\testDoc.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>15.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-491</x:t>
+    <x:t>16.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1559595546</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:W22"/>
+  <x:dimension ref="A1:Y22"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D11" sqref="D11"/>
+      <x:selection activeCell="F18" sqref="F18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -826,7 +826,7 @@
     <x:col min="23" max="16384" width="9.140625" style="13"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:23" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:25" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -894,8 +894,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="W1"/>
-    </x:row>
-    <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <x:c r="X1"/>
+      <x:c r="Y1"/>
+    </x:row>
+    <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -959,8 +961,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="W2"/>
-    </x:row>
-    <x:row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <x:c r="X2"/>
+      <x:c r="Y2"/>
+    </x:row>
+    <x:row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A3" s="32"/>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="8"/>
@@ -984,7 +988,7 @@
       <x:c r="U3" s="29"/>
       <x:c r="V3" s="31"/>
     </x:row>
-    <x:row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A4" s="32"/>
       <x:c r="B4" s="7"/>
       <x:c r="C4" s="8"/>
@@ -1008,7 +1012,7 @@
       <x:c r="U4" s="29"/>
       <x:c r="V4" s="31"/>
     </x:row>
-    <x:row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A5" s="6"/>
       <x:c r="B5" s="7"/>
       <x:c r="C5" s="8"/>
@@ -1032,7 +1036,7 @@
       <x:c r="U5" s="29"/>
       <x:c r="V5" s="30"/>
     </x:row>
-    <x:row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A6" s="6"/>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="8"/>
@@ -1056,7 +1060,7 @@
       <x:c r="U6" s="29"/>
       <x:c r="V6" s="30"/>
     </x:row>
-    <x:row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A7" s="6"/>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="8"/>
@@ -1080,7 +1084,7 @@
       <x:c r="U7" s="29"/>
       <x:c r="V7" s="30"/>
     </x:row>
-    <x:row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A8" s="6"/>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="8"/>
@@ -1104,7 +1108,7 @@
       <x:c r="U8" s="29"/>
       <x:c r="V8" s="30"/>
     </x:row>
-    <x:row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A9" s="6"/>
       <x:c r="B9" s="7"/>
       <x:c r="C9" s="8"/>
@@ -1128,7 +1132,7 @@
       <x:c r="U9" s="29"/>
       <x:c r="V9" s="30"/>
     </x:row>
-    <x:row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A10" s="6"/>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="8"/>
@@ -1152,7 +1156,7 @@
       <x:c r="U10" s="29"/>
       <x:c r="V10" s="30"/>
     </x:row>
-    <x:row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A11" s="6"/>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="8"/>
@@ -1176,7 +1180,7 @@
       <x:c r="U11" s="29"/>
       <x:c r="V11" s="30"/>
     </x:row>
-    <x:row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A12" s="6"/>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="8"/>
@@ -1200,7 +1204,7 @@
       <x:c r="U12" s="29"/>
       <x:c r="V12" s="30"/>
     </x:row>
-    <x:row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A13" s="6"/>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="8"/>
@@ -1224,7 +1228,7 @@
       <x:c r="U13" s="29"/>
       <x:c r="V13" s="30"/>
     </x:row>
-    <x:row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A14" s="6"/>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="8"/>
@@ -1248,7 +1252,7 @@
       <x:c r="U14" s="29"/>
       <x:c r="V14" s="30"/>
     </x:row>
-    <x:row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A15" s="6"/>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="8"/>
@@ -1272,7 +1276,7 @@
       <x:c r="U15" s="29"/>
       <x:c r="V15" s="30"/>
     </x:row>
-    <x:row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <x:row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A16" s="6"/>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="8"/>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -167,6 +167,45 @@
   </x:si>
   <x:si>
     <x:t>1559595546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210122473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1204762245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1595386437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>726643700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найдена категория договора "Сервисное обслуживание".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -899,7 +938,7 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -955,7 +994,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="V2" t="s">
         <x:v>43</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -206,6 +206,9 @@
   </x:si>
   <x:si>
     <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -938,7 +941,7 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -151,64 +151,31 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
+    <x:t>ТехноСистемы ЗАО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Templates\TestDocs\testDoc.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ошибка на стороне Directum RX. Код ошибки: BadRequest, Причина: Bad Request, Ответ сервиса интеграции: "Дата завершения действия договора должна быть больше даты начала."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ошибка на стороне Directum RX. Код ошибки: InternalServerError, Причина: Internal Server Error, Ответ сервиса интеграции: "Произошла непредвиденная ошибка Обратитесь к администратору системы."</x:t>
+  </x:si>
+  <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>ТехноСистемы ЗАО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Templates\TestDocs\testDoc.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1559595546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210122473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1204762245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1595386437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>726643700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найдена категория договора "Сервисное обслуживание".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -839,7 +806,7 @@
   <x:dimension ref="A1:Y22"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F18" sqref="F18"/>
+      <x:selection activeCell="J5" sqref="J5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -941,7 +908,7 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -959,20 +926,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G2" s="36" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H2" s="36" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I2" s="37" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J2" s="11">
-        <x:v>40410</x:v>
-      </x:c>
-      <x:c r="K2" s="11">
-        <x:v>42235</x:v>
-      </x:c>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J2" s="11"/>
+      <x:c r="K2" s="11"/>
       <x:c r="L2" s="12">
         <x:v>10000</x:v>
       </x:c>
@@ -994,13 +957,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="W2"/>
       <x:c r="X2"/>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -160,22 +160,19 @@
     <x:t>02.08.2023</x:t>
   </x:si>
   <x:si>
-    <x:t>122</x:t>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>1255</x:t>
   </x:si>
   <x:si>
     <x:t>Не загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>Ошибка на стороне Directum RX. Код ошибки: BadRequest, Причина: Bad Request, Ответ сервиса интеграции: "Дата завершения действия договора должна быть больше даты начала."</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ошибка на стороне Directum RX. Код ошибки: InternalServerError, Причина: Internal Server Error, Ответ сервиса интеграции: "Произошла непредвиденная ошибка Обратитесь к администратору системы."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -806,7 +803,7 @@
   <x:dimension ref="A1:Y22"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="J5" sqref="J5"/>
+      <x:selection activeCell="A2" sqref="A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -908,7 +905,7 @@
     </x:row>
     <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -957,13 +954,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W2"/>
       <x:c r="X2"/>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -166,13 +166,16 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>1255</x:t>
+    <x:t>1257</x:t>
   </x:si>
   <x:si>
     <x:t>Не загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>Ошибка на стороне Directum RX. Код ошибки: InternalServerError, Причина: Internal Server Error, Ответ сервиса интеграции: "Произошла непредвиденная ошибка Обратитесь к администратору системы."</x:t>
+    <x:t>Ошибка на стороне Directum RX. Код ошибки: BadRequest, Причина: Bad Request, Ответ сервиса интеграции: "Не удалось прочитать запись с ИД 0. Запись не существует или у вас нет прав доступа."; Не найден Журнал регистрации по ИД: "". Договор: "1257 20.08.2010 0:00:00 +00:00 Digital River GmbH". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Журнал регистрации по ИД: "". Договор: "1257 20.08.2010 0:00:00 +00:00 Digital River GmbH". </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -802,8 +805,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:Y22"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <x:selection activeCell="Q6" sqref="Q6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,20 +950,18 @@
       <x:c r="Q2" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="R2" s="36">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="R2" s="36"/>
       <x:c r="S2" s="38" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="W2"/>
       <x:c r="X2"/>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -18,7 +18,7 @@
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$V$22</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511"/>
+  <x:calcPr calcId="152511" refMode="R1C1"/>
 </x:workbook>
 </file>
 
@@ -157,25 +157,22 @@
     <x:t>Templates\TestDocs\testDoc.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>02.08.2023</x:t>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден журнал регистрации по ИД ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330</x:t>
   </x:si>
   <x:si>
     <x:t>Загружен</x:t>
   </x:si>
   <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>1257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ошибка на стороне Directum RX. Код ошибки: BadRequest, Причина: Bad Request, Ответ сервиса интеграции: "Не удалось прочитать запись с ИД 0. Запись не существует или у вас нет прав доступа."; Не найден Журнал регистрации по ИД: "". Договор: "1257 20.08.2010 0:00:00 +00:00 Digital River GmbH". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Журнал регистрации по ИД: "". Договор: "1257 20.08.2010 0:00:00 +00:00 Digital River GmbH". </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -805,8 +802,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:Y22"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <x:selection activeCell="Q6" sqref="Q6"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <x:selection activeCell="R6" sqref="R6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -950,7 +947,9 @@
       <x:c r="Q2" s="10" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="R2" s="36"/>
+      <x:c r="R2" s="36">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="S2" s="38" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -958,10 +957,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="U2" s="39" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V2" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W2"/>
       <x:c r="X2"/>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contracts.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\bin\Debug\net6.0\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -16,14 +16,14 @@
     <x:sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$V$22</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$X$22</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511" refMode="R1C1"/>
+  <x:calcPr calcId="152511"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -151,28 +151,46 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>ТехноСистемы ЗАО</x:t>
   </x:si>
   <x:si>
     <x:t>Templates\TestDocs\testDoc.txt</x:t>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден журнал регистрации по ИД ""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дело</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата помещения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123. Тест</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Наша организация" с именем "ТехноСистемы ЗАО". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -319,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -450,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:Y22"/>
+  <x:dimension ref="A1:AA22"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <x:selection activeCell="R6" sqref="R6"/>
+      <x:selection activeCell="T5" sqref="T5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -825,14 +846,14 @@
     <x:col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
     <x:col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
     <x:col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="18" max="19" width="13.42578125" style="19" customWidth="1"/>
-    <x:col min="20" max="20" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="23" max="16384" width="9.140625" style="13"/>
+    <x:col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
+    <x:col min="22" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="23" max="23" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="24" max="24" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="25" max="16384" width="9.140625" style="13"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:25" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:27" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <x:c r="A1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -890,22 +911,28 @@
       <x:c r="S1" s="34" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="T1" s="28" t="s">
+      <x:c r="T1" s="40" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U1" s="40" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="V1" s="28" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="U1" s="28" t="s">
+      <x:c r="W1" s="28" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="V1" s="28" t="s">
+      <x:c r="X1" s="28" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="W1"/>
-      <x:c r="X1"/>
       <x:c r="Y1"/>
-    </x:row>
-    <x:row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="Z1"/>
+      <x:c r="AA1"/>
+    </x:row>
+    <x:row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>47</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -923,16 +950,20 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G2" s="36" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H2" s="36" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I2" s="37" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J2" s="11"/>
-      <x:c r="K2" s="11"/>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J2" s="11">
+        <x:v>40410</x:v>
+      </x:c>
+      <x:c r="K2" s="11">
+        <x:v>42235</x:v>
+      </x:c>
       <x:c r="L2" s="12">
         <x:v>10000</x:v>
       </x:c>
@@ -954,19 +985,25 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="U2" s="39" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="V2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="W2"/>
-      <x:c r="X2"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="U2" s="11">
+        <x:v>40410</x:v>
+      </x:c>
+      <x:c r="V2" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="W2" s="39" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="X2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="Y2"/>
-    </x:row>
-    <x:row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="Z2"/>
+      <x:c r="AA2"/>
+    </x:row>
+    <x:row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A3" s="32"/>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="8"/>
@@ -986,11 +1023,13 @@
       <x:c r="Q3" s="10"/>
       <x:c r="R3" s="10"/>
       <x:c r="S3" s="10"/>
-      <x:c r="T3" s="29"/>
-      <x:c r="U3" s="29"/>
-      <x:c r="V3" s="31"/>
-    </x:row>
-    <x:row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T3" s="10"/>
+      <x:c r="U3" s="10"/>
+      <x:c r="V3" s="29"/>
+      <x:c r="W3" s="29"/>
+      <x:c r="X3" s="31"/>
+    </x:row>
+    <x:row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A4" s="32"/>
       <x:c r="B4" s="7"/>
       <x:c r="C4" s="8"/>
@@ -1010,11 +1049,13 @@
       <x:c r="Q4" s="10"/>
       <x:c r="R4" s="10"/>
       <x:c r="S4" s="10"/>
-      <x:c r="T4" s="29"/>
-      <x:c r="U4" s="29"/>
-      <x:c r="V4" s="31"/>
-    </x:row>
-    <x:row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T4" s="10"/>
+      <x:c r="U4" s="10"/>
+      <x:c r="V4" s="29"/>
+      <x:c r="W4" s="29"/>
+      <x:c r="X4" s="31"/>
+    </x:row>
+    <x:row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A5" s="6"/>
       <x:c r="B5" s="7"/>
       <x:c r="C5" s="8"/>
@@ -1034,11 +1075,13 @@
       <x:c r="Q5" s="10"/>
       <x:c r="R5" s="10"/>
       <x:c r="S5" s="10"/>
-      <x:c r="T5" s="29"/>
-      <x:c r="U5" s="29"/>
-      <x:c r="V5" s="30"/>
-    </x:row>
-    <x:row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T5" s="10"/>
+      <x:c r="U5" s="10"/>
+      <x:c r="V5" s="29"/>
+      <x:c r="W5" s="29"/>
+      <x:c r="X5" s="30"/>
+    </x:row>
+    <x:row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A6" s="6"/>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="8"/>
@@ -1058,11 +1101,13 @@
       <x:c r="Q6" s="10"/>
       <x:c r="R6" s="10"/>
       <x:c r="S6" s="10"/>
-      <x:c r="T6" s="29"/>
-      <x:c r="U6" s="29"/>
-      <x:c r="V6" s="30"/>
-    </x:row>
-    <x:row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T6" s="10"/>
+      <x:c r="U6" s="10"/>
+      <x:c r="V6" s="29"/>
+      <x:c r="W6" s="29"/>
+      <x:c r="X6" s="30"/>
+    </x:row>
+    <x:row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A7" s="6"/>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="8"/>
@@ -1082,11 +1127,13 @@
       <x:c r="Q7" s="10"/>
       <x:c r="R7" s="10"/>
       <x:c r="S7" s="10"/>
-      <x:c r="T7" s="29"/>
-      <x:c r="U7" s="29"/>
-      <x:c r="V7" s="30"/>
-    </x:row>
-    <x:row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T7" s="10"/>
+      <x:c r="U7" s="10"/>
+      <x:c r="V7" s="29"/>
+      <x:c r="W7" s="29"/>
+      <x:c r="X7" s="30"/>
+    </x:row>
+    <x:row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A8" s="6"/>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="8"/>
@@ -1106,11 +1153,13 @@
       <x:c r="Q8" s="10"/>
       <x:c r="R8" s="10"/>
       <x:c r="S8" s="10"/>
-      <x:c r="T8" s="29"/>
-      <x:c r="U8" s="29"/>
-      <x:c r="V8" s="30"/>
-    </x:row>
-    <x:row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T8" s="10"/>
+      <x:c r="U8" s="10"/>
+      <x:c r="V8" s="29"/>
+      <x:c r="W8" s="29"/>
+      <x:c r="X8" s="30"/>
+    </x:row>
+    <x:row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A9" s="6"/>
       <x:c r="B9" s="7"/>
       <x:c r="C9" s="8"/>
@@ -1130,11 +1179,13 @@
       <x:c r="Q9" s="10"/>
       <x:c r="R9" s="10"/>
       <x:c r="S9" s="10"/>
-      <x:c r="T9" s="29"/>
-      <x:c r="U9" s="29"/>
-      <x:c r="V9" s="30"/>
-    </x:row>
-    <x:row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T9" s="10"/>
+      <x:c r="U9" s="10"/>
+      <x:c r="V9" s="29"/>
+      <x:c r="W9" s="29"/>
+      <x:c r="X9" s="30"/>
+    </x:row>
+    <x:row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A10" s="6"/>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="8"/>
@@ -1154,11 +1205,13 @@
       <x:c r="Q10" s="10"/>
       <x:c r="R10" s="10"/>
       <x:c r="S10" s="10"/>
-      <x:c r="T10" s="29"/>
-      <x:c r="U10" s="29"/>
-      <x:c r="V10" s="30"/>
-    </x:row>
-    <x:row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T10" s="10"/>
+      <x:c r="U10" s="10"/>
+      <x:c r="V10" s="29"/>
+      <x:c r="W10" s="29"/>
+      <x:c r="X10" s="30"/>
+    </x:row>
+    <x:row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A11" s="6"/>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="8"/>
@@ -1178,11 +1231,13 @@
       <x:c r="Q11" s="10"/>
       <x:c r="R11" s="10"/>
       <x:c r="S11" s="10"/>
-      <x:c r="T11" s="29"/>
-      <x:c r="U11" s="29"/>
-      <x:c r="V11" s="30"/>
-    </x:row>
-    <x:row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T11" s="10"/>
+      <x:c r="U11" s="10"/>
+      <x:c r="V11" s="29"/>
+      <x:c r="W11" s="29"/>
+      <x:c r="X11" s="30"/>
+    </x:row>
+    <x:row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A12" s="6"/>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="8"/>
@@ -1202,11 +1257,13 @@
       <x:c r="Q12" s="10"/>
       <x:c r="R12" s="10"/>
       <x:c r="S12" s="10"/>
-      <x:c r="T12" s="29"/>
-      <x:c r="U12" s="29"/>
-      <x:c r="V12" s="30"/>
-    </x:row>
-    <x:row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T12" s="10"/>
+      <x:c r="U12" s="10"/>
+      <x:c r="V12" s="29"/>
+      <x:c r="W12" s="29"/>
+      <x:c r="X12" s="30"/>
+    </x:row>
+    <x:row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A13" s="6"/>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="8"/>
@@ -1226,11 +1283,13 @@
       <x:c r="Q13" s="10"/>
       <x:c r="R13" s="10"/>
       <x:c r="S13" s="10"/>
-      <x:c r="T13" s="29"/>
-      <x:c r="U13" s="29"/>
-      <x:c r="V13" s="30"/>
-    </x:row>
-    <x:row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T13" s="10"/>
+      <x:c r="U13" s="10"/>
+      <x:c r="V13" s="29"/>
+      <x:c r="W13" s="29"/>
+      <x:c r="X13" s="30"/>
+    </x:row>
+    <x:row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A14" s="6"/>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="8"/>
@@ -1250,11 +1309,13 @@
       <x:c r="Q14" s="10"/>
       <x:c r="R14" s="10"/>
       <x:c r="S14" s="10"/>
-      <x:c r="T14" s="29"/>
-      <x:c r="U14" s="29"/>
-      <x:c r="V14" s="30"/>
-    </x:row>
-    <x:row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T14" s="10"/>
+      <x:c r="U14" s="10"/>
+      <x:c r="V14" s="29"/>
+      <x:c r="W14" s="29"/>
+      <x:c r="X14" s="30"/>
+    </x:row>
+    <x:row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A15" s="6"/>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="8"/>
@@ -1274,11 +1335,13 @@
       <x:c r="Q15" s="10"/>
       <x:c r="R15" s="10"/>
       <x:c r="S15" s="10"/>
-      <x:c r="T15" s="29"/>
-      <x:c r="U15" s="29"/>
-      <x:c r="V15" s="30"/>
-    </x:row>
-    <x:row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <x:c r="T15" s="10"/>
+      <x:c r="U15" s="10"/>
+      <x:c r="V15" s="29"/>
+      <x:c r="W15" s="29"/>
+      <x:c r="X15" s="30"/>
+    </x:row>
+    <x:row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <x:c r="A16" s="6"/>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="8"/>
@@ -1298,11 +1361,13 @@
       <x:c r="Q16" s="10"/>
       <x:c r="R16" s="10"/>
       <x:c r="S16" s="10"/>
-      <x:c r="T16" s="29"/>
-      <x:c r="U16" s="29"/>
-      <x:c r="V16" s="30"/>
-    </x:row>
-    <x:row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="T16" s="10"/>
+      <x:c r="U16" s="10"/>
+      <x:c r="V16" s="29"/>
+      <x:c r="W16" s="29"/>
+      <x:c r="X16" s="30"/>
+    </x:row>
+    <x:row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A17" s="6"/>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="8"/>
@@ -1322,11 +1387,13 @@
       <x:c r="Q17" s="10"/>
       <x:c r="R17" s="10"/>
       <x:c r="S17" s="10"/>
-      <x:c r="T17" s="29"/>
-      <x:c r="U17" s="29"/>
-      <x:c r="V17" s="30"/>
-    </x:row>
-    <x:row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="T17" s="10"/>
+      <x:c r="U17" s="10"/>
+      <x:c r="V17" s="29"/>
+      <x:c r="W17" s="29"/>
+      <x:c r="X17" s="30"/>
+    </x:row>
+    <x:row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A18" s="6"/>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="8"/>
@@ -1346,11 +1413,13 @@
       <x:c r="Q18" s="10"/>
       <x:c r="R18" s="10"/>
       <x:c r="S18" s="10"/>
-      <x:c r="T18" s="29"/>
-      <x:c r="U18" s="29"/>
-      <x:c r="V18" s="30"/>
-    </x:row>
-    <x:row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="T18" s="10"/>
+      <x:c r="U18" s="10"/>
+      <x:c r="V18" s="29"/>
+      <x:c r="W18" s="29"/>
+      <x:c r="X18" s="30"/>
+    </x:row>
+    <x:row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A19" s="6"/>
       <x:c r="B19" s="7"/>
       <x:c r="C19" s="8"/>
@@ -1370,11 +1439,13 @@
       <x:c r="Q19" s="10"/>
       <x:c r="R19" s="10"/>
       <x:c r="S19" s="10"/>
-      <x:c r="T19" s="29"/>
-      <x:c r="U19" s="29"/>
-      <x:c r="V19" s="30"/>
-    </x:row>
-    <x:row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="T19" s="10"/>
+      <x:c r="U19" s="10"/>
+      <x:c r="V19" s="29"/>
+      <x:c r="W19" s="29"/>
+      <x:c r="X19" s="30"/>
+    </x:row>
+    <x:row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A20" s="6"/>
       <x:c r="B20" s="7"/>
       <x:c r="C20" s="8"/>
@@ -1394,11 +1465,13 @@
       <x:c r="Q20" s="10"/>
       <x:c r="R20" s="10"/>
       <x:c r="S20" s="10"/>
-      <x:c r="T20" s="29"/>
-      <x:c r="U20" s="29"/>
-      <x:c r="V20" s="30"/>
-    </x:row>
-    <x:row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="T20" s="10"/>
+      <x:c r="U20" s="10"/>
+      <x:c r="V20" s="29"/>
+      <x:c r="W20" s="29"/>
+      <x:c r="X20" s="30"/>
+    </x:row>
+    <x:row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A21" s="6"/>
       <x:c r="B21" s="7"/>
       <x:c r="C21" s="8"/>
@@ -1417,17 +1490,17 @@
       <x:c r="P21" s="10"/>
       <x:c r="Q21" s="10"/>
       <x:c r="R21" s="10"/>
-      <x:c r="T21" s="29"/>
-      <x:c r="U21" s="29"/>
-      <x:c r="V21" s="30"/>
-    </x:row>
-    <x:row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <x:c r="V21" s="29"/>
+      <x:c r="W21" s="29"/>
+      <x:c r="X21" s="30"/>
+    </x:row>
+    <x:row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <x:c r="A22" s="15"/>
       <x:c r="L22" s="18"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <x:autoFilter ref="A1:V22"/>
+  <x:autoFilter ref="A1:X22"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </x:worksheet>
